--- a/biology/Médecine/René_Allendy/René_Allendy.xlsx
+++ b/biology/Médecine/René_Allendy/René_Allendy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Allendy</t>
+          <t>René_Allendy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Félix Eugène Allendy, né le 19 février 1889 à Paris, mort le 12 juillet 1942 à Montpellier, est un médecin homéopathe et psychanalyste français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Allendy</t>
+          <t>René_Allendy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fondateur avec René Laforgue et Marie Bonaparte de la Société psychanalytique de Paris en 1926. Il compte parmi ses patients René Crevel, Anaïs Nin et son mari Hugo Guiler, Antonin Artaud ou Maurice Sachs. Il s'est par ailleurs intéressé aux sciences occultes.
 En 1940, il quitte Paris pour Montpellier, en zone libre.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Allendy</t>
+          <t>René_Allendy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Ouvrages (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Grand-œuvre thérapeutique des alchimistes et les principes de l’homéopathie, Paris, Voile d'Isis, 1920.
 Le Lotus sacré..., Paris, Librairie théosophique, 1920.
